--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_8_39.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_8_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3918796.994583204</v>
+        <v>3916251.808509918</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283186</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -668,7 +668,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
@@ -677,7 +677,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>19.65541699476269</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -716,16 +716,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>326.2097809358202</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -814,19 +814,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>155.886038567534</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>8.389005322401447</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>44.90925090849413</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>126.362581673494</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -953,16 +953,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1057,13 +1057,13 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1102,16 +1102,16 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>203.1609600883623</v>
       </c>
       <c r="V7" t="n">
-        <v>226.9736586744963</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1133,13 +1133,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>110.0843945509511</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
@@ -1148,10 +1148,10 @@
         <v>12.9169039459368</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,13 +1181,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T8" t="n">
-        <v>28.63965548614061</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1199,7 +1199,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1288,16 +1288,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>49.94675160484172</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1339,25 +1339,25 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>211.7857997499445</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>93.4044447618827</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>214.397829669574</v>
       </c>
     </row>
     <row r="14">
@@ -1610,7 +1610,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1622,7 +1622,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1701,7 +1701,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1765,25 +1765,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>28.75188085812005</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>20.88994825141578</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1938,7 +1938,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>53.11937003877862</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>27.02919805176109</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2129,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2175,7 +2175,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2236,25 +2236,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2302,7 +2302,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>194.5707234541125</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2485,10 +2485,10 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>27.02919805176109</v>
+        <v>107.317805417867</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2719,16 +2719,16 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2773,7 +2773,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>248.3840700603491</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2947,13 +2947,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>33.01627976944155</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2965,10 +2965,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3187,10 +3187,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>20.43112068613158</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3202,10 +3202,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3238,7 +3238,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3430,16 +3430,16 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3661,25 +3661,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>39.52129633183176</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3743,7 +3743,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3752,7 +3752,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3898,25 +3898,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428213</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>171.6912157329567</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3961,7 +3961,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4135,13 +4135,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>110.0177171766861</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4150,10 +4150,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4192,7 +4192,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>126.1348013633905</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1229.941371236149</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="C2" t="n">
-        <v>1229.941371236149</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="D2" t="n">
-        <v>1229.941371236149</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E2" t="n">
-        <v>1229.941371236149</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F2" t="n">
-        <v>818.9554664465411</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>400.991658344728</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>73.79693838073081</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4364,16 +4364,16 @@
         <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>1993.54646147304</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1993.54646147304</v>
+        <v>1332.978744901368</v>
       </c>
       <c r="X2" t="n">
-        <v>1620.08070321196</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="Y2" t="n">
-        <v>1229.941371236149</v>
+        <v>959.5129866402885</v>
       </c>
     </row>
     <row r="3">
@@ -4383,49 +4383,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,16 +4462,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>498.8626623130036</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>498.8626623130036</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>211.4036268380756</v>
       </c>
       <c r="X4" t="n">
-        <v>719.6552414565338</v>
+        <v>211.4036268380756</v>
       </c>
       <c r="Y4" t="n">
-        <v>498.8626623130036</v>
+        <v>211.4036268380756</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2092.477155601806</v>
+        <v>631.9064409481875</v>
       </c>
       <c r="C5" t="n">
-        <v>1723.514638661394</v>
+        <v>586.5435612426379</v>
       </c>
       <c r="D5" t="n">
-        <v>1723.514638661394</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="E5" t="n">
-        <v>1337.72638606315</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="F5" t="n">
-        <v>926.7404812735424</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G5" t="n">
-        <v>508.7766731717293</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>181.5819532077321</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533138</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733123</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224072</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4601,16 +4601,16 @@
         <v>2465.942913862886</v>
       </c>
       <c r="V5" t="n">
-        <v>2465.942913862886</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="W5" t="n">
-        <v>2465.942913862886</v>
+        <v>1782.111371249201</v>
       </c>
       <c r="X5" t="n">
-        <v>2092.477155601806</v>
+        <v>1408.645612988121</v>
       </c>
       <c r="Y5" t="n">
-        <v>2092.477155601806</v>
+        <v>1018.506281012309</v>
       </c>
     </row>
     <row r="6">
@@ -4647,13 +4647,13 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4699,16 +4699,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>498.8626623130036</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>498.8626623130036</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="V7" t="n">
-        <v>498.8626623130036</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W7" t="n">
-        <v>498.8626623130036</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X7" t="n">
-        <v>498.8626623130036</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>498.8626623130036</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,46 +4778,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1186.952328438143</v>
+        <v>981.3140028591404</v>
       </c>
       <c r="C8" t="n">
-        <v>817.9898114977311</v>
+        <v>981.3140028591404</v>
       </c>
       <c r="D8" t="n">
-        <v>459.7241128909807</v>
+        <v>623.0483042523899</v>
       </c>
       <c r="E8" t="n">
-        <v>73.93586029273641</v>
+        <v>511.8519461201161</v>
       </c>
       <c r="F8" t="n">
-        <v>66.99035954353293</v>
+        <v>504.9064453709126</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>491.8590676477442</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>173.6359524202537</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>75.17723181374775</v>
+        <v>242.5828808341008</v>
       </c>
       <c r="K8" t="n">
-        <v>157.7403863883401</v>
+        <v>325.1460354086931</v>
       </c>
       <c r="L8" t="n">
-        <v>710.5536446345393</v>
+        <v>745.243961936865</v>
       </c>
       <c r="M8" t="n">
-        <v>1342.271455617851</v>
+        <v>1376.961772920177</v>
       </c>
       <c r="N8" t="n">
-        <v>1969.579123677698</v>
+        <v>2004.269440980023</v>
       </c>
       <c r="O8" t="n">
-        <v>2516.740328444775</v>
+        <v>2551.430645747101</v>
       </c>
       <c r="P8" t="n">
         <v>2662.164970996627</v>
@@ -4829,25 +4829,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2540.93405351505</v>
       </c>
       <c r="T8" t="n">
-        <v>2668.220146082727</v>
+        <v>2326.134191782762</v>
       </c>
       <c r="U8" t="n">
-        <v>2668.220146082727</v>
+        <v>2072.442488527913</v>
       </c>
       <c r="V8" t="n">
-        <v>2337.157258739156</v>
+        <v>1741.379601184342</v>
       </c>
       <c r="W8" t="n">
-        <v>2337.157258739156</v>
+        <v>1741.379601184342</v>
       </c>
       <c r="X8" t="n">
-        <v>1963.691500478076</v>
+        <v>1367.913842923262</v>
       </c>
       <c r="Y8" t="n">
-        <v>1573.552168502265</v>
+        <v>1367.913842923262</v>
       </c>
     </row>
     <row r="9">
@@ -4881,22 +4881,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>172.6022336772601</v>
+        <v>74.45691162920645</v>
       </c>
       <c r="K9" t="n">
-        <v>502.03063798307</v>
+        <v>403.8853159350163</v>
       </c>
       <c r="L9" t="n">
-        <v>1006.392177849189</v>
+        <v>908.2468558011349</v>
       </c>
       <c r="M9" t="n">
-        <v>1623.437760398664</v>
+        <v>1548.79220526824</v>
       </c>
       <c r="N9" t="n">
-        <v>1822.094502051329</v>
+        <v>1747.448946920904</v>
       </c>
       <c r="O9" t="n">
-        <v>1981.606814720089</v>
+        <v>2296.884955673627</v>
       </c>
       <c r="P9" t="n">
         <v>2405.574583200926</v>
@@ -4936,13 +4936,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>423.447068407922</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>254.510885480015</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>104.3942460676793</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
         <v>53.94298182036445</v>
@@ -4987,25 +4987,25 @@
         <v>1053.877663279709</v>
       </c>
       <c r="S10" t="n">
-        <v>1053.877663279709</v>
+        <v>846.4373785321145</v>
       </c>
       <c r="T10" t="n">
-        <v>1053.877663279709</v>
+        <v>632.5123282796453</v>
       </c>
       <c r="U10" t="n">
-        <v>1053.877663279709</v>
+        <v>343.360151857325</v>
       </c>
       <c r="V10" t="n">
-        <v>1053.877663279709</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W10" t="n">
-        <v>1053.877663279709</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X10" t="n">
-        <v>825.8881123816918</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y10" t="n">
-        <v>605.0955332381617</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5045,13 +5045,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5060,7 +5060,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
@@ -5118,28 +5118,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>280.8495004245706</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>2001.151557821488</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2222.001901828445</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>580.8993044876688</v>
+        <v>699.73118040114</v>
       </c>
       <c r="C13" t="n">
-        <v>411.9631215597619</v>
+        <v>699.73118040114</v>
       </c>
       <c r="D13" t="n">
-        <v>411.9631215597619</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="E13" t="n">
-        <v>411.9631215597619</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F13" t="n">
-        <v>411.9631215597619</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5221,28 +5221,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>762.5477693179085</v>
+        <v>699.73118040114</v>
       </c>
     </row>
     <row r="14">
@@ -5258,28 +5258,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332386</v>
@@ -5288,16 +5288,16 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5352,31 +5352,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>429.5088224239595</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349511</v>
+        <v>924.8344286397181</v>
       </c>
       <c r="M15" t="n">
-        <v>1520.445529061503</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N15" t="n">
-        <v>2148.04349261611</v>
+        <v>2149.810879820876</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5413,19 +5413,19 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429803</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="H16" t="n">
         <v>175.9033664000583</v>
@@ -5437,10 +5437,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5495,13 +5495,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5510,31 +5510,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5595,25 +5595,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191924</v>
       </c>
       <c r="L18" t="n">
-        <v>119.290296770379</v>
+        <v>427.7414352191924</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969308</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>376.4492432300683</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>322.7933138979687</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H19" t="n">
         <v>175.9033664000583</v>
@@ -5674,10 +5674,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5747,31 +5747,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143765</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>2223.769289033211</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>726.955532171245</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5911,10 +5911,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5950,10 +5950,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>947.7481113147751</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>726.955532171245</v>
       </c>
     </row>
     <row r="23">
@@ -5975,19 +5975,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
@@ -6002,7 +6002,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6072,10 +6072,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N24" t="n">
         <v>1307.627092998424</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>426.0170212122713</v>
       </c>
       <c r="G25" t="n">
         <v>317.6151975578602</v>
@@ -6187,10 +6187,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="26">
@@ -6206,37 +6206,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
         <v>3640.422291068009</v>
@@ -6300,25 +6300,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>692.9625378792909</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>1320.560501433898</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>1872.470231673185</v>
       </c>
       <c r="P27" t="n">
         <v>2283.159972732779</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>552.3777707160738</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6382,52 +6382,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1182.808365587861</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>954.8188146898436</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>734.0262355463135</v>
       </c>
     </row>
     <row r="29">
@@ -6458,25 +6458,25 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6537,13 +6537,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
         <v>1074.481071167373</v>
@@ -6552,13 +6552,13 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O30" t="n">
-        <v>2516.421633107662</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
         <v>2516.421633107662</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>662.1522880254209</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>493.2161050975141</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270443</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6674,22 +6674,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
@@ -6713,7 +6713,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6731,19 +6731,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6792,13 +6792,13 @@
         <v>1652.717886400351</v>
       </c>
       <c r="O33" t="n">
-        <v>2129.438138565707</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>493.2161050975141</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6886,22 +6886,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6911,34 +6911,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6968,19 +6968,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7017,19 +7017,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>427.7414352191925</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L36" t="n">
-        <v>923.0670414349511</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M36" t="n">
-        <v>1520.445529061503</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N36" t="n">
-        <v>2148.04349261611</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O36" t="n">
-        <v>2319.799627685893</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P36" t="n">
         <v>2319.799627685893</v>
@@ -7078,13 +7078,13 @@
         <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7160,37 +7160,37 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
         <v>4562.265728852255</v>
@@ -7251,25 +7251,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M39" t="n">
-        <v>1344.266747951537</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951537</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908938</v>
+        <v>473.9330993947871</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908938</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908938</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7354,28 +7354,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7391,13 +7391,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7406,13 +7406,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7421,10 +7421,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M42" t="n">
-        <v>1072.713683962606</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N42" t="n">
-        <v>1700.311647517213</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O42" t="n">
-        <v>2252.2213777565</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400717</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121648</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121648</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121648</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121648</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270447</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>2023.637075050237</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854707</v>
+        <v>1734.561848394435</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.70136564882</v>
+        <v>1479.877360188548</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611859</v>
+        <v>1190.460190151587</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138415</v>
+        <v>1190.460190151587</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703114</v>
+        <v>969.6676110080573</v>
       </c>
     </row>
     <row r="44">
@@ -7625,70 +7625,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111727</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7722,25 +7722,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1074.481071167373</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2223.769289033212</v>
       </c>
       <c r="P45" t="n">
         <v>2283.159972732779</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400717</v>
+        <v>641.1291986799072</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908938</v>
+        <v>641.1291986799072</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908938</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908938</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908938</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>1560.976963588655</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611859</v>
+        <v>1271.559793551694</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138415</v>
+        <v>1043.570242653677</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703114</v>
+        <v>822.7776635101469</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8070,13 +8070,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783515</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8213,7 +8213,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720733</v>
       </c>
       <c r="K5" t="n">
         <v>324.1454125711647</v>
@@ -8295,7 +8295,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142012</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8304,7 +8304,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>359.9065542451761</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8450,13 +8450,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>417.6612145504504</v>
+        <v>283.6053239261805</v>
       </c>
       <c r="M8" t="n">
         <v>449.5135334928325</v>
@@ -8468,7 +8468,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
-        <v>35.04072454780373</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>26.95434640298089</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8538,16 +8538,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>441.9679254493644</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8936,7 +8936,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>1.818989403545856e-12</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -9182,7 +9182,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>2.046363078989089e-12</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9878,7 +9878,7 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>-1.477928890381008e-12</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -9893,7 +9893,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -10355,7 +10355,7 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -10367,7 +10367,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -10841,7 +10841,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>-9.663381206337363e-13</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -11075,7 +11075,7 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>-1.13686837721616e-12</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>72.11969353038614</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>4.186823682520753</v>
       </c>
     </row>
     <row r="14">
@@ -23653,22 +23653,22 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>119.4047645948081</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23887,25 +23887,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>93.31459260779056</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>138.4949402405078</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>31.13893193492467</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24373,10 +24373,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>138.4949402405078</v>
+        <v>58.20633287440187</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24607,19 +24607,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24661,7 +24661,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>38.13892827624193</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24835,13 +24835,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>146.8157004124957</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24853,10 +24853,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25075,10 +25075,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>146.8157004124963</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25090,10 +25090,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25126,7 +25126,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25318,16 +25318,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>38.13892827624255</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25549,25 +25549,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>127.7255247667961</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25786,25 +25786,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>57.22910392194173</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25837,7 +25837,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>45.7142345943316</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25849,7 +25849,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26023,13 +26023,13 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>57.22910392194177</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26038,10 +26038,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26080,7 +26080,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>126.0028419604375</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26311,40 +26311,40 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>800515.725617676</v>
+      </c>
+      <c r="C2" t="n">
+        <v>800515.7256176763</v>
+      </c>
+      <c r="D2" t="n">
         <v>800515.7256176764</v>
       </c>
-      <c r="C2" t="n">
-        <v>800515.725617676</v>
-      </c>
-      <c r="D2" t="n">
-        <v>800515.7256176766</v>
-      </c>
       <c r="E2" t="n">
+        <v>786967.9346977556</v>
+      </c>
+      <c r="F2" t="n">
         <v>786967.9346977561</v>
       </c>
-      <c r="F2" t="n">
-        <v>786967.9346977555</v>
-      </c>
       <c r="G2" t="n">
-        <v>786967.9346977558</v>
+        <v>786967.934697756</v>
       </c>
       <c r="H2" t="n">
         <v>786967.9346977557</v>
       </c>
       <c r="I2" t="n">
-        <v>786967.9346977561</v>
+        <v>786967.9346977554</v>
       </c>
       <c r="J2" t="n">
         <v>786967.934697756</v>
       </c>
       <c r="K2" t="n">
+        <v>786967.9346977557</v>
+      </c>
+      <c r="L2" t="n">
         <v>786967.934697756</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>786967.9346977558</v>
-      </c>
-      <c r="M2" t="n">
-        <v>786967.9346977557</v>
       </c>
       <c r="N2" t="n">
         <v>786967.9346977557</v>
@@ -26353,7 +26353,7 @@
         <v>786967.9346977558</v>
       </c>
       <c r="P2" t="n">
-        <v>786967.9346977558</v>
+        <v>786967.9346977556</v>
       </c>
     </row>
     <row r="3">
@@ -26363,13 +26363,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>184756.2785481117</v>
+        <v>184756.2785481116</v>
       </c>
       <c r="E3" t="n">
         <v>771052.6913808064</v>
@@ -26384,10 +26384,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925931</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26424,37 +26424,37 @@
         <v>176266.9759012794</v>
       </c>
       <c r="E4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.536566682744</v>
       </c>
       <c r="F4" t="n">
-        <v>5677.536566682767</v>
+        <v>5677.536566682797</v>
       </c>
       <c r="G4" t="n">
-        <v>5677.536566682767</v>
+        <v>5677.536566682777</v>
       </c>
       <c r="H4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.536566682756</v>
       </c>
       <c r="I4" t="n">
-        <v>5677.536566682751</v>
+        <v>5677.536566682744</v>
       </c>
       <c r="J4" t="n">
-        <v>5677.536566682747</v>
+        <v>5677.536566682744</v>
       </c>
       <c r="K4" t="n">
         <v>5677.536566682745</v>
       </c>
       <c r="L4" t="n">
-        <v>5677.536566682751</v>
+        <v>5677.536566682747</v>
       </c>
       <c r="M4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.536566682744</v>
       </c>
       <c r="N4" t="n">
-        <v>5677.536566682729</v>
+        <v>5677.536566682744</v>
       </c>
       <c r="O4" t="n">
-        <v>5677.536566682749</v>
+        <v>5677.536566682775</v>
       </c>
       <c r="P4" t="n">
         <v>5677.536566682744</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-82233.6471233108</v>
+        <v>-82233.64712331124</v>
       </c>
       <c r="C6" t="n">
-        <v>507734.2320912333</v>
+        <v>507734.2320912335</v>
       </c>
       <c r="D6" t="n">
-        <v>351930.4259974388</v>
+        <v>351930.4259974387</v>
       </c>
       <c r="E6" t="n">
-        <v>-90884.82307364016</v>
+        <v>-90919.56099907632</v>
       </c>
       <c r="F6" t="n">
-        <v>680167.8683071657</v>
+        <v>680133.1303817309</v>
       </c>
       <c r="G6" t="n">
-        <v>680167.868307166</v>
+        <v>680133.1303817305</v>
       </c>
       <c r="H6" t="n">
-        <v>680167.8683071659</v>
+        <v>680133.1303817303</v>
       </c>
       <c r="I6" t="n">
-        <v>680167.8683071663</v>
+        <v>680133.1303817298</v>
       </c>
       <c r="J6" t="n">
-        <v>503744.6491145731</v>
+        <v>503709.9111891373</v>
       </c>
       <c r="K6" t="n">
-        <v>680167.8683071662</v>
+        <v>680133.1303817303</v>
       </c>
       <c r="L6" t="n">
-        <v>680167.868307166</v>
+        <v>680133.1303817306</v>
       </c>
       <c r="M6" t="n">
-        <v>555959.3575991074</v>
+        <v>555924.6196736719</v>
       </c>
       <c r="N6" t="n">
-        <v>680167.8683071658</v>
+        <v>680133.1303817302</v>
       </c>
       <c r="O6" t="n">
-        <v>680167.868307166</v>
+        <v>680133.1303817305</v>
       </c>
       <c r="P6" t="n">
-        <v>680167.868307166</v>
+        <v>680133.1303817302</v>
       </c>
     </row>
   </sheetData>
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
         <v>593.4761003380651</v>
@@ -26957,13 +26957,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>215.7324361209785</v>
+        <v>215.7324361209784</v>
       </c>
       <c r="E3" t="n">
         <v>774.4994000036087</v>
@@ -26978,10 +26978,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27388,7 +27388,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27397,7 +27397,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>132.2758992500985</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27436,16 +27436,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>23.03118778159279</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27534,19 +27534,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>23.9459416144033</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27558,7 +27558,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,13 +27582,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27597,13 +27597,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>217.3206500666357</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>320.3636408625134</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>25.56873457136727</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27673,16 +27673,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27777,13 +27777,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27792,10 +27792,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,22 +27816,22 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>83.12091415361539</v>
       </c>
       <c r="V7" t="n">
-        <v>25.16398464933172</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27853,13 +27853,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>271.8459755213107</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27868,10 +27868,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,13 +27901,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>184.0122076288254</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,16 +28008,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>96.48721104172745</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28059,25 +28059,25 @@
         <v>129.1731816677913</v>
       </c>
       <c r="S10" t="n">
-        <v>205.3658819001186</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>223.3729047207587</v>
+        <v>11.58710497081421</v>
       </c>
       <c r="U10" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28330,7 +28330,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -28342,7 +28342,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28855,7 +28855,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -30463,16 +30463,16 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
         <v>5.115907697472721e-13</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31276,46 +31276,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,22 +31458,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31838,10 +31838,10 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
         <v>638.8832749473072</v>
@@ -31850,19 +31850,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>431.3680753731354</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -31987,37 +31987,37 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R14" t="n">
         <v>345.4516222043725</v>
@@ -32026,10 +32026,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32072,7 +32072,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>126.8376266666667</v>
@@ -32081,31 +32081,31 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O15" t="n">
-        <v>551.7051287319853</v>
+        <v>277.2922978908111</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32151,28 +32151,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N16" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32181,7 +32181,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32224,37 +32224,37 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R17" t="n">
         <v>345.4516222043725</v>
@@ -32263,10 +32263,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32315,34 +32315,34 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>164.2853229338207</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>416.7024900153336</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q18" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U18" t="n">
         <v>0.1935814387275954</v>
@@ -32388,28 +32388,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N19" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q19" t="n">
         <v>206.5643005515927</v>
@@ -32418,7 +32418,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32461,37 +32461,37 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R20" t="n">
         <v>345.4516222043725</v>
@@ -32500,10 +32500,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32546,40 +32546,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>193.9649970098534</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U21" t="n">
         <v>0.1935814387275954</v>
@@ -32625,28 +32625,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J22" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N22" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q22" t="n">
         <v>206.5643005515927</v>
@@ -32655,7 +32655,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
@@ -32792,13 +32792,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>253.6713445157999</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,13 +33014,13 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>126.8376266666667</v>
@@ -33032,31 +33032,31 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>548.8125296967487</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R27" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,10 +33251,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33263,37 +33263,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>361.7519118779092</v>
+        <v>332.1692388321073</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33512,7 +33512,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>624.1318526922785</v>
+        <v>587.1221002143864</v>
       </c>
       <c r="P33" t="n">
         <v>561.8765786214698</v>
@@ -33521,7 +33521,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33652,7 +33652,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33737,22 +33737,22 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>270.9486956727256</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>316.0872899694776</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
         <v>375.599612848529</v>
@@ -33971,7 +33971,7 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422586</v>
@@ -33980,19 +33980,19 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>416.4300581532619</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>616.9033572954392</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>342.490526454265</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>437.853104691376</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,10 +34436,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34448,37 +34448,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>366.8427442359099</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>193.964997009853</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34787,16 +34787,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262118</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,25 +34933,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181306</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,10 +35012,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770689</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047524</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35024,13 +35024,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,13 +35170,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>21.44873736705384</v>
+        <v>190.5453525391276</v>
       </c>
       <c r="K8" t="n">
         <v>83.39712583292157</v>
       </c>
       <c r="L8" t="n">
-        <v>558.3972305517163</v>
+        <v>424.3413399274464</v>
       </c>
       <c r="M8" t="n">
         <v>638.0987989730422</v>
@@ -35188,7 +35188,7 @@
         <v>552.6880856233105</v>
       </c>
       <c r="P8" t="n">
-        <v>146.8935783352043</v>
+        <v>111.8528537874005</v>
       </c>
       <c r="Q8" t="n">
         <v>35.33749497130819</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>119.8578301584805</v>
+        <v>20.72114122105252</v>
       </c>
       <c r="K9" t="n">
         <v>332.7559639452625</v>
@@ -35258,16 +35258,16 @@
         <v>509.4561008748672</v>
       </c>
       <c r="M9" t="n">
-        <v>623.2783662115914</v>
+        <v>647.0155045122269</v>
       </c>
       <c r="N9" t="n">
         <v>200.663375406732</v>
       </c>
       <c r="O9" t="n">
-        <v>161.1235481502633</v>
+        <v>554.9858674269929</v>
       </c>
       <c r="P9" t="n">
-        <v>428.2502711927643</v>
+        <v>109.7875025528271</v>
       </c>
       <c r="Q9" t="n">
         <v>233.0438950105733</v>
@@ -35486,10 +35486,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
         <v>500.328895167433</v>
@@ -35498,19 +35498,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>297.3936679588052</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35641,31 +35641,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193534</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O15" t="n">
-        <v>409.1088842875408</v>
+        <v>134.6960534463666</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
@@ -35811,19 +35811,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,31 +35878,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L17" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924747</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902404</v>
@@ -35963,28 +35963,28 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L18" t="n">
-        <v>25.73094315394657</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>285.3607779320004</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q18" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K19" t="n">
         <v>264.3325884096349</v>
@@ -36048,19 +36048,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P19" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36115,31 +36115,31 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L20" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902404</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>59.99058959552318</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K22" t="n">
         <v>264.3325884096349</v>
@@ -36285,19 +36285,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P22" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36379,7 +36379,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36440,13 +36440,13 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462675</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -36680,22 +36680,22 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>414.8381222824185</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36914,25 +36914,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>219.1556674334648</v>
+        <v>189.5729943876629</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37075,7 +37075,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
         <v>751.8584478193516</v>
@@ -37087,7 +37087,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
         <v>129.8660843902404</v>
@@ -37160,7 +37160,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>481.5356082478341</v>
+        <v>444.525855769942</v>
       </c>
       <c r="P33" t="n">
         <v>427.9021712071395</v>
@@ -37169,7 +37169,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37300,7 +37300,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37385,22 +37385,22 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>128.8146617507074</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>173.4910455250332</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
         <v>235.6178387625075</v>
@@ -37561,7 +37561,7 @@
         <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924719</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902405</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
@@ -37628,19 +37628,19 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>274.2960242312436</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>485.5616452121058</v>
       </c>
       <c r="O39" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683802</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>211.1488143709317</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>303.8786972770457</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38099,25 +38099,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>235.5010321525766</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>59.99058959552271</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
